--- a/src/analysis/rewardVStrain_formatted.xlsx
+++ b/src/analysis/rewardVStrain_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoyok\gitRepo\m5231142DingLab_SharePoint\Ding-Lab - m5231142\drlFX\src\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC15809-6080-433B-B7E3-3FDAF37F0DC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D0B8C6-2A2E-4DDE-9238-1E398DB61F2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14550" yWindow="75" windowWidth="12825" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>MA0</t>
     <phoneticPr fontId="1"/>
@@ -78,11 +78,22 @@
     <t>Accumulated reward in training</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Avg. of MAs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last 10 avg.</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -216,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -238,6 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2580,7 +2592,750 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.77610539132782E-2"/>
+          <c:y val="0.10991828621957354"/>
+          <c:w val="0.86601281053776813"/>
+          <c:h val="0.85519125134939522"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. of MAs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>6833.9999999996726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>482.00000000014217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2627.9999999995002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2404.0000000002792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4401.9999999999836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4121.9999999998527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1746.0000000004559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7574.0000000000555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6265.9999999997726</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4185.9999999999918</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1178.0000000003442</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1682.0000000002219</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6949.9999999994998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7716.0000000002274</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4742.0000000001583</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1254.0000000001742</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1727.9999999998213</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3903.9999999997831</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6527.9999999990814</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5629.999999999608</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6909.9999999996899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5296.0000000006439</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8218.0000000006003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-614.00000000002979</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3924.0000000003683</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10087.999999999758</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7427.9999999997362</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7516.0000000002501</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3966.0000000000232</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2799.9999999996026</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2712.0000000002283</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1972.0000000001914</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2404.0000000001683</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3161.9999999996608</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-527.99999999999363</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1044.0000000004638</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1186.0000000004602</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-919.99999999998636</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-6851.9999999997617</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-6130.0000000001737</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-6269.9999999997635</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3704.0000000003174</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3288.0000000003906</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5860.0000000002101</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3228.0000000002592</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7007.99999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED39-43ED-83D7-11A852EA1CFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1593138336"/>
+        <c:axId val="1593138752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1593138336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>Episode</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.94219578742343879"/>
+              <c:y val="0.44048049726844285"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593138752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1593138752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>Accumulated Reward</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.0848909303651104E-3"/>
+              <c:y val="2.5510284826879528E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593138336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3136,6 +3891,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3169,6 +4440,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>681036</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>209555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E03B827-E8D9-46B8-A5AF-A9E5DCC7E5CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3440,16 +4747,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3480,7 +4789,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -5187,6 +6496,35 @@
       <c r="G51">
         <f t="shared" si="5"/>
         <v>7947.127728332769</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="9">
+        <f>AVERAGE(B29:B48)</f>
+        <v>953.50000000006912</v>
+      </c>
+      <c r="C52" s="9">
+        <f t="shared" ref="C52:F52" si="6">AVERAGE(C29:C48)</f>
+        <v>-2748.499999999819</v>
+      </c>
+      <c r="D52" s="9">
+        <f t="shared" si="6"/>
+        <v>-2168.9999999998295</v>
+      </c>
+      <c r="E52" s="9">
+        <f t="shared" si="6"/>
+        <v>-2785.4999999999873</v>
+      </c>
+      <c r="F52" s="9">
+        <f t="shared" si="6"/>
+        <v>-2123.0000000001064</v>
+      </c>
+      <c r="G52" s="9">
+        <f>AVERAGE(G29:G48)</f>
+        <v>-1204.4999999999993</v>
       </c>
     </row>
   </sheetData>
